--- a/HONDURAS/Género/INE/Educación EPHPM Honduras.xlsx
+++ b/HONDURAS/Género/INE/Educación EPHPM Honduras.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gavia\OneDrive\Documentos\Data Intelligence\Género\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paula\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\HONDURAS\Género\INE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74662AA7-0715-47B8-9159-2DBF9F83F840}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB311C61-6B37-44EE-9705-78D8DE412E9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{F4884248-17A3-4CF8-A123-3DAC913B38A2}"/>
   </bookViews>
@@ -714,7 +714,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE7FBF36-5BF2-481B-9AE6-B4D3043EFC36}" name="Tabla1" displayName="Tabla1" ref="A5:F389" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE7FBF36-5BF2-481B-9AE6-B4D3043EFC36}" name="analfabetismo_años_estudio" displayName="analfabetismo_años_estudio" ref="A5:F389" totalsRowShown="0">
   <autoFilter ref="A5:F389" xr:uid="{C8BAC61E-ED64-44B4-A6C2-C104E8883863}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:F101">
     <sortCondition ref="D5:D101"/>
@@ -732,7 +732,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B01F025B-FA88-4979-B06E-993225BA835D}" name="Tabla2" displayName="Tabla2" ref="A3:G259" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B01F025B-FA88-4979-B06E-993225BA835D}" name="asistencia_5_18_años" displayName="asistencia_5_18_años" ref="A3:G259" totalsRowShown="0">
   <autoFilter ref="A3:G259" xr:uid="{3CF436F0-D4E1-40F6-96E9-23E79CC47F34}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G67">
     <sortCondition ref="A3:A67"/>
@@ -751,7 +751,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C204A08B-4460-4B70-B6E8-5E682F95F89B}" name="Tabla3" displayName="Tabla3" ref="A4:G260" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C204A08B-4460-4B70-B6E8-5E682F95F89B}" name="asistencia_3_17_años" displayName="asistencia_3_17_años" ref="A4:G260" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="A4:G260" xr:uid="{F36E10E4-0813-4D12-BF56-E0C2AF60DA04}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:G100">
     <sortCondition ref="A4:A100"/>
@@ -770,7 +770,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{436C6242-46A8-4C8A-B786-5E82BCABCDDC}" name="Tabla4" displayName="Tabla4" ref="A4:H388" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{436C6242-46A8-4C8A-B786-5E82BCABCDDC}" name="asistencia_repitencia" displayName="asistencia_repitencia" ref="A4:H388" totalsRowShown="0">
   <autoFilter ref="A4:H388" xr:uid="{FA681D62-45FD-46A7-9148-0D97760B1659}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H52">
     <sortCondition descending="1" ref="F4:F52"/>
@@ -790,7 +790,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A93E50D2-F1F6-42E9-9AB7-ACBC6246B047}" name="Tabla6" displayName="Tabla6" ref="A3:G171" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A93E50D2-F1F6-42E9-9AB7-ACBC6246B047}" name="no_matriculados" displayName="no_matriculados" ref="A3:G171" totalsRowShown="0">
   <autoFilter ref="A3:G171" xr:uid="{03EDFF21-ED88-472F-B1E0-410EA84876EB}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{07CFEF06-2192-40F2-9D41-39E39EF154CA}" name="Año"/>
@@ -806,7 +806,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B55B9DA7-71FC-4477-A3F0-945D0AC2EF06}" name="Tabla5" displayName="Tabla5" ref="A4:H172" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B55B9DA7-71FC-4477-A3F0-945D0AC2EF06}" name="matriculados" displayName="matriculados" ref="A4:H172" totalsRowShown="0">
   <autoFilter ref="A4:H172" xr:uid="{ED53D03A-6876-4477-8E0B-30A7CD8B302C}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{C27C8325-00B4-4F46-A496-A0970702A4B4}" name="Año"/>
@@ -1137,12 +1137,12 @@
   <dimension ref="A2:G389"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
   </cols>
@@ -8884,7 +8884,7 @@
   <dimension ref="A1:G259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8892,7 +8892,7 @@
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -14841,8 +14841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4628E6B-D5A6-4A28-A4F3-46F6331AFD2B}">
   <dimension ref="A1:G260"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20800,7 +20800,7 @@
   <dimension ref="A1:H388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H480" sqref="A5:H480"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30854,7 +30854,7 @@
   <dimension ref="A1:G171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G158" sqref="A4:G158"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34788,8 +34788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE87A65-AA45-41B1-B547-D788FB81E9FE}">
   <dimension ref="A1:H172"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H159" sqref="A5:H159"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
